--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D26895B-A48E-4622-9470-E1B025A42185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="name" sheetId="1" r:id="rId1"/>
+    <sheet name="trend" sheetId="1" r:id="rId1"/>
     <sheet name="strategy" sheetId="2" r:id="rId2"/>
     <sheet name="ind" sheetId="4" r:id="rId3"/>
     <sheet name="indMetrics" sheetId="9" r:id="rId4"/>
@@ -20,7 +21,7 @@
     <sheet name="rules" sheetId="8" r:id="rId6"/>
     <sheet name="metrics" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -94,9 +95,6 @@
     <t>nX</t>
   </si>
   <si>
-    <t>trend</t>
-  </si>
-  <si>
     <t>EMA</t>
   </si>
   <si>
@@ -190,16 +188,16 @@
     <t>exit</t>
   </si>
   <si>
-    <t>fk</t>
-  </si>
-  <si>
     <t>trigger</t>
+  </si>
+  <si>
+    <t>trend_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -559,7 +557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -590,11 +588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -619,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -639,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -659,7 +657,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -688,10 +686,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -702,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -716,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -736,11 +734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,85 +832,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f>TEXT(D6,"000")</f>
-        <v>020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" ref="E7:E9" si="1">TEXT(D7,"000")</f>
-        <v>050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -932,19 +858,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -958,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
@@ -981,7 +907,7 @@
         <v>dXformula</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -992,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E3</f>
@@ -1006,16 +932,16 @@
         <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
         <v>SMA.200</v>
       </c>
-      <c r="F3" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E6</f>
-        <v>SMA.020</v>
+      <c r="F3" t="e">
+        <f>ind!C3 &amp; "." &amp;indMetrics!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="G3" t="str">
         <f>strategy!F3</f>
         <v>gXformula</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -1027,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1057,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
@@ -1079,10 +1005,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,10 +1016,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,10 +1027,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,10 +1038,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1123,10 +1049,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>-10</v>
@@ -1145,10 +1071,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1171,16 +1097,16 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D26895B-A48E-4622-9470-E1B025A42185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCA663E-CD04-43BF-8C5F-63889DD24D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="indMetrics" sheetId="9" r:id="rId4"/>
     <sheet name="sig" sheetId="6" r:id="rId5"/>
     <sheet name="rules" sheetId="8" r:id="rId6"/>
-    <sheet name="metrics" sheetId="7" r:id="rId7"/>
+    <sheet name="formulas" sheetId="10" r:id="rId7"/>
+    <sheet name="metrics" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -192,6 +193,21 @@
   </si>
   <si>
     <t>trend_id</t>
+  </si>
+  <si>
+    <t>ind_id</t>
+  </si>
+  <si>
+    <t>strategy_ind_id</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>"(EMA.020 &gt; EMA.050  |  EMA.050 &gt; EMA.100  | EMA.100 &gt; EMA.200) &amp; index(mktdata) &gt; '2002-12-02'",</t>
+  </si>
+  <si>
+    <t>"(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)",</t>
   </si>
 </sst>
 </file>
@@ -201,13 +217,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +264,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +619,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -839,18 +866,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K1" sqref="K1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -878,8 +906,20 @@
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -912,8 +952,21 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>strategy!E2&amp;ind!C2&amp;"_Entry"</f>
+        <v>dXEMA_Entry</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -932,9 +985,9 @@
         <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
         <v>SMA.200</v>
       </c>
-      <c r="F3" t="e">
-        <f>ind!C3 &amp; "." &amp;indMetrics!#REF!</f>
-        <v>#REF!</v>
+      <c r="F3" t="str">
+        <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
+        <v>SMA.200</v>
       </c>
       <c r="G3" t="str">
         <f>strategy!F3</f>
@@ -944,6 +997,19 @@
         <v>49</v>
       </c>
       <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <f>strategy!E2&amp;ind!C2&amp;"_Exit"</f>
+        <v>dXEMA_Exit</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
     </row>
@@ -1083,6 +1149,59 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F0C942-BC28-410F-A765-7055E09D7804}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCA663E-CD04-43BF-8C5F-63889DD24D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB5F1BFB-CB07-401B-BC9F-02DB36E3AD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,6 @@
     <t>nX</t>
   </si>
   <si>
-    <t>EMA</t>
-  </si>
-  <si>
-    <t>SMA</t>
-  </si>
-  <si>
     <t>sigFormula</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>"(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)",</t>
+  </si>
+  <si>
+    <t>ema</t>
+  </si>
+  <si>
+    <t>sma</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +717,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,19 +886,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
@@ -910,13 +910,13 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -924,37 +924,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
-        <v>EMA.020</v>
+        <v>ema.020</v>
       </c>
       <c r="D2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E3</f>
-        <v>EMA.050</v>
+        <v>ema.050</v>
       </c>
       <c r="E2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E4</f>
-        <v>EMA.100</v>
+        <v>ema.100</v>
       </c>
       <c r="F2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E5</f>
-        <v>EMA.200</v>
+        <v>ema.200</v>
       </c>
       <c r="G2" t="str">
         <f>strategy!F2</f>
         <v>dXformula</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="str">
         <f>strategy!E2&amp;ind!C2&amp;"_Entry"</f>
-        <v>dXEMA_Entry</v>
+        <v>dXema_Entry</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -971,37 +971,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E3</f>
-        <v>SMA.050</v>
+        <v>sma.050</v>
       </c>
       <c r="D3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E4</f>
-        <v>SMA.100</v>
+        <v>sma.100</v>
       </c>
       <c r="E3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
-        <v>SMA.200</v>
+        <v>sma.200</v>
       </c>
       <c r="F3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
-        <v>SMA.200</v>
+        <v>sma.200</v>
       </c>
       <c r="G3" t="str">
         <f>strategy!F3</f>
         <v>gXformula</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="str">
         <f>strategy!E2&amp;ind!C2&amp;"_Exit"</f>
-        <v>dXEMA_Exit</v>
+        <v>dXema_Exit</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
@@ -1071,10 +1071,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,10 +1082,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1093,10 +1093,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,10 +1104,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1115,10 +1115,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>-10</v>
@@ -1137,10 +1137,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F0C942-BC28-410F-A765-7055E09D7804}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1205,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1216,16 +1216,16 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB5F1BFB-CB07-401B-BC9F-02DB36E3AD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B544D674-AD7A-4882-A2B0-DB26EEEC7B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -868,14 +868,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1205,7 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B544D674-AD7A-4882-A2B0-DB26EEEC7B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6484C3-B76A-4679-9106-E0D1EAF9409C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="sig" sheetId="6" r:id="rId5"/>
     <sheet name="rules" sheetId="8" r:id="rId6"/>
     <sheet name="formulas" sheetId="10" r:id="rId7"/>
-    <sheet name="metrics" sheetId="7" r:id="rId8"/>
+    <sheet name="position" sheetId="11" r:id="rId8"/>
+    <sheet name="trade" sheetId="12" r:id="rId9"/>
+    <sheet name="metrics" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -208,6 +210,15 @@
   </si>
   <si>
     <t>sma</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>entry</t>
   </si>
 </sst>
 </file>
@@ -614,6 +625,996 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
@@ -868,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,992 +2204,94 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89E362-DDAF-4DAD-A6CD-45F2004F6145}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>8</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE333B3D-FF78-4186-84B7-A1499D6EA830}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6484C3-B76A-4679-9106-E0D1EAF9409C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="trade" sheetId="12" r:id="rId9"/>
     <sheet name="metrics" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -224,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -595,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -626,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1616,7 +1615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1714,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1762,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1866,11 +1865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,6 +1877,7 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2151,11 +2151,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F0C942-BC28-410F-A765-7055E09D7804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,7 +2204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E89E362-DDAF-4DAD-A6CD-45F2004F6145}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2250,10 +2250,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE333B3D-FF78-4186-84B7-A1499D6EA830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1C4F27-9C4A-4259-B4AF-6D8F5BE49E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="trade" sheetId="12" r:id="rId9"/>
     <sheet name="metrics" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -188,9 +189,6 @@
   </si>
   <si>
     <t>trend_id</t>
-  </si>
-  <si>
-    <t>ind_id</t>
   </si>
   <si>
     <t>strategy_ind_id</t>
@@ -223,7 +221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -594,7 +592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -625,7 +623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1615,7 +1613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1713,7 +1711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1741,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1865,11 +1863,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,10 +1875,10 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1914,14 +1912,11 @@
       <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1964,11 +1959,8 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1992,8 +1984,8 @@
         <v>sma.200</v>
       </c>
       <c r="G3" t="str">
-        <f>strategy!F3</f>
-        <v>gXformula</v>
+        <f>strategy!F2</f>
+        <v>dXformula</v>
       </c>
       <c r="H3" t="s">
         <v>47</v>
@@ -2009,9 +2001,6 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
         <v>1</v>
       </c>
     </row>
@@ -2021,7 +2010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2151,50 +2140,62 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
+        <v>dXema_entry</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
+        <v>dXema_exit</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
@@ -2204,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2250,7 +2251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2279,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1C4F27-9C4A-4259-B4AF-6D8F5BE49E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6AE80-E300-40F4-973F-DCADB440DDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="indMetrics" sheetId="9" r:id="rId4"/>
     <sheet name="sig" sheetId="6" r:id="rId5"/>
     <sheet name="rules" sheetId="8" r:id="rId6"/>
-    <sheet name="formulas" sheetId="10" r:id="rId7"/>
+    <sheet name="formula" sheetId="10" r:id="rId7"/>
     <sheet name="position" sheetId="11" r:id="rId8"/>
     <sheet name="trade" sheetId="12" r:id="rId9"/>
     <sheet name="metrics" sheetId="7" r:id="rId10"/>
+    <sheet name="z_sig" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -191,15 +192,9 @@
     <t>trend_id</t>
   </si>
   <si>
-    <t>strategy_ind_id</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
-    <t>"(EMA.020 &gt; EMA.050  |  EMA.050 &gt; EMA.100  | EMA.100 &gt; EMA.200) &amp; index(mktdata) &gt; '2002-12-02'",</t>
-  </si>
-  <si>
     <t>"(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)",</t>
   </si>
   <si>
@@ -216,6 +211,21 @@
   </si>
   <si>
     <t>entry</t>
+  </si>
+  <si>
+    <t>strategy_id</t>
+  </si>
+  <si>
+    <t>"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</t>
+  </si>
+  <si>
+    <t>"(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</t>
+  </si>
+  <si>
+    <t>"!(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)", &amp; "!(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</t>
+  </si>
+  <si>
+    <t>"!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)" &amp; "!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</t>
   </si>
 </sst>
 </file>
@@ -235,8 +245,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,11 +283,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1612,6 +1625,212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085322FF-AEF0-413E-A05B-FFEFADC5563B}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="str">
+        <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
+        <v>ema.020</v>
+      </c>
+      <c r="F2" t="str">
+        <f>ind!C2 &amp; "." &amp;indMetrics!E3</f>
+        <v>ema.050</v>
+      </c>
+      <c r="G2" t="str">
+        <f>ind!C2 &amp; "." &amp;indMetrics!E4</f>
+        <v>ema.100</v>
+      </c>
+      <c r="H2" t="str">
+        <f>ind!C2 &amp; "." &amp;indMetrics!E5</f>
+        <v>ema.200</v>
+      </c>
+      <c r="I2" t="str">
+        <f>strategy!F2</f>
+        <v>dXformula</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="str">
+        <f>strategy!E2&amp;ind!C2&amp;"_Entry"</f>
+        <v>dXema_Entry</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="str">
+        <f>ind!C3 &amp; "." &amp;indMetrics!E2</f>
+        <v>sma.020</v>
+      </c>
+      <c r="F3" t="str">
+        <f>ind!C3 &amp; "." &amp;indMetrics!E3</f>
+        <v>sma.050</v>
+      </c>
+      <c r="G3" t="str">
+        <f>ind!C3 &amp; "." &amp;indMetrics!E4</f>
+        <v>sma.100</v>
+      </c>
+      <c r="H3" t="str">
+        <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
+        <v>sma.200</v>
+      </c>
+      <c r="I3" t="str">
+        <f>strategy!F2</f>
+        <v>dXformula</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="str">
+        <f>strategy!E2&amp;ind!C2&amp;"_Exit"</f>
+        <v>dXema_Exit</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="str">
+        <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
+        <v>ema.020</v>
+      </c>
+      <c r="F4" t="str">
+        <f>ind!C2 &amp; "." &amp;indMetrics!E3</f>
+        <v>ema.050</v>
+      </c>
+      <c r="G4" t="str">
+        <f>ind!C2 &amp; "." &amp;indMetrics!E4</f>
+        <v>ema.100</v>
+      </c>
+      <c r="H4" t="str">
+        <f>ind!C2 &amp; "." &amp;indMetrics!E5</f>
+        <v>ema.200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="str">
+        <f>ind!C3 &amp; "." &amp;indMetrics!E2</f>
+        <v>sma.020</v>
+      </c>
+      <c r="F5" t="str">
+        <f>ind!C3 &amp; "." &amp;indMetrics!E3</f>
+        <v>sma.050</v>
+      </c>
+      <c r="G5" t="str">
+        <f>ind!C3 &amp; "." &amp;indMetrics!E4</f>
+        <v>sma.100</v>
+      </c>
+      <c r="H5" t="str">
+        <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
+        <v>sma.200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
@@ -1739,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1864,21 +2083,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1886,121 +2100,23 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
-        <v>ema.020</v>
-      </c>
-      <c r="D2" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E3</f>
-        <v>ema.050</v>
-      </c>
-      <c r="E2" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E4</f>
-        <v>ema.100</v>
-      </c>
-      <c r="F2" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E5</f>
-        <v>ema.200</v>
-      </c>
-      <c r="G2" t="str">
-        <f>strategy!F2</f>
-        <v>dXformula</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="str">
-        <f>strategy!E2&amp;ind!C2&amp;"_Entry"</f>
-        <v>dXema_Entry</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E3</f>
-        <v>sma.050</v>
-      </c>
-      <c r="D3" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E4</f>
-        <v>sma.100</v>
-      </c>
-      <c r="E3" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
-        <v>sma.200</v>
-      </c>
-      <c r="F3" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
-        <v>sma.200</v>
-      </c>
-      <c r="G3" t="str">
-        <f>strategy!F2</f>
-        <v>dXformula</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="str">
-        <f>strategy!E2&amp;ind!C2&amp;"_Exit"</f>
-        <v>dXema_Exit</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2141,62 +2257,143 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="128" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
         <v>dXema_entry</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>dXema_exit</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
+        <v>dXsma_entry</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
+        <v>gXema_entry</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
+        <v>gXsma_entry</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
+        <v>nXema_entry</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="str">
+        <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
+        <v>nXsma_entry</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2242,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2280,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6AE80-E300-40F4-973F-DCADB440DDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6B43E-6141-438C-84B2-C13E9C401934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -198,12 +198,6 @@
     <t>"(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)",</t>
   </si>
   <si>
-    <t>ema</t>
-  </si>
-  <si>
-    <t>sma</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -226,6 +220,12 @@
   </si>
   <si>
     <t>"!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)" &amp; "!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</t>
+  </si>
+  <si>
+    <t>EMA</t>
+  </si>
+  <si>
+    <t>SMA</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1645,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
-        <v>ema.020</v>
+        <v>EMA.020</v>
       </c>
       <c r="F2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E3</f>
-        <v>ema.050</v>
+        <v>EMA.050</v>
       </c>
       <c r="G2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E4</f>
-        <v>ema.100</v>
+        <v>EMA.100</v>
       </c>
       <c r="H2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E5</f>
-        <v>ema.200</v>
+        <v>EMA.200</v>
       </c>
       <c r="I2" t="str">
         <f>strategy!F2</f>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="L2" t="str">
         <f>strategy!E2&amp;ind!C2&amp;"_Entry"</f>
-        <v>dXema_Entry</v>
+        <v>dXEMA_Entry</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1737,19 +1737,19 @@
       </c>
       <c r="E3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E2</f>
-        <v>sma.020</v>
+        <v>SMA.020</v>
       </c>
       <c r="F3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E3</f>
-        <v>sma.050</v>
+        <v>SMA.050</v>
       </c>
       <c r="G3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E4</f>
-        <v>sma.100</v>
+        <v>SMA.100</v>
       </c>
       <c r="H3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
-        <v>sma.200</v>
+        <v>SMA.200</v>
       </c>
       <c r="I3" t="str">
         <f>strategy!F2</f>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="L3" t="str">
         <f>strategy!E2&amp;ind!C2&amp;"_Exit"</f>
-        <v>dXema_Exit</v>
+        <v>dXEMA_Exit</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1781,19 +1781,19 @@
       </c>
       <c r="E4" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
-        <v>ema.020</v>
+        <v>EMA.020</v>
       </c>
       <c r="F4" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E3</f>
-        <v>ema.050</v>
+        <v>EMA.050</v>
       </c>
       <c r="G4" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E4</f>
-        <v>ema.100</v>
+        <v>EMA.100</v>
       </c>
       <c r="H4" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E5</f>
-        <v>ema.200</v>
+        <v>EMA.200</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1811,19 +1811,19 @@
       </c>
       <c r="E5" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E2</f>
-        <v>sma.020</v>
+        <v>SMA.020</v>
       </c>
       <c r="F5" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E3</f>
-        <v>sma.050</v>
+        <v>SMA.050</v>
       </c>
       <c r="G5" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E4</f>
-        <v>sma.100</v>
+        <v>SMA.100</v>
       </c>
       <c r="H5" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
-        <v>sma.200</v>
+        <v>SMA.200</v>
       </c>
     </row>
   </sheetData>
@@ -1933,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2259,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -2276,7 +2276,7 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D2" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>dXema_entry</v>
+        <v>dXEMA_entry</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>50</v>
@@ -2318,10 +2318,10 @@
       </c>
       <c r="D3" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>dXsma_entry</v>
+        <v>dXSMA_entry</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2336,10 +2336,10 @@
       </c>
       <c r="D4" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>gXema_entry</v>
+        <v>gXEMA_entry</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2354,10 +2354,10 @@
       </c>
       <c r="D5" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>gXsma_entry</v>
+        <v>gXSMA_entry</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,10 +2372,10 @@
       </c>
       <c r="D6" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>nXema_entry</v>
+        <v>nXEMA_entry</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2390,10 +2390,10 @@
       </c>
       <c r="D7" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>nXsma_entry</v>
+        <v>nXSMA_entry</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2431,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6B43E-6141-438C-84B2-C13E9C401934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A5B6E3-09F6-43BD-A4CF-CF3B7369FB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Death Cross</t>
   </si>
   <si>
-    <t>dX</t>
-  </si>
-  <si>
     <t>abbv</t>
   </si>
   <si>
@@ -87,18 +84,12 @@
     <t>Golden Cross</t>
   </si>
   <si>
-    <t>gX</t>
-  </si>
-  <si>
     <t>nox</t>
   </si>
   <si>
     <t>No Cross</t>
   </si>
   <si>
-    <t>nX</t>
-  </si>
-  <si>
     <t>sigFormula</t>
   </si>
   <si>
@@ -117,15 +108,6 @@
     <t>formula</t>
   </si>
   <si>
-    <t>dXformula</t>
-  </si>
-  <si>
-    <t>gXformula</t>
-  </si>
-  <si>
-    <t>nXformula</t>
-  </si>
-  <si>
     <t>strategy</t>
   </si>
   <si>
@@ -226,6 +208,15 @@
   </si>
   <si>
     <t>SMA</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>gx</t>
+  </si>
+  <si>
+    <t>nx</t>
   </si>
 </sst>
 </file>
@@ -608,11 +599,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -650,16 +648,16 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1642,10 +1640,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1654,28 +1652,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1689,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
@@ -1709,17 +1707,17 @@
       </c>
       <c r="I2" t="str">
         <f>strategy!F2</f>
-        <v>dXformula</v>
+        <v>dxformula</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
       <c r="L2" t="str">
         <f>strategy!E2&amp;ind!C2&amp;"_Entry"</f>
-        <v>dXEMA_Entry</v>
+        <v>dxEMA_Entry</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1733,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E2</f>
@@ -1753,17 +1751,17 @@
       </c>
       <c r="I3" t="str">
         <f>strategy!F2</f>
-        <v>dXformula</v>
+        <v>dxformula</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
       <c r="L3" t="str">
         <f>strategy!E2&amp;ind!C2&amp;"_Exit"</f>
-        <v>dXEMA_Exit</v>
+        <v>dxEMA_Exit</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1777,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
@@ -1807,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E2</f>
@@ -1836,12 +1834,19 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1849,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1878,10 +1883,11 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="F2" t="str">
+        <f>E2 &amp; "formula"</f>
+        <v>dxformula</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1892,16 +1898,17 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F4" si="0">E3 &amp; "formula"</f>
+        <v>gxformula</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,16 +1919,17 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>nxformula</v>
       </c>
     </row>
   </sheetData>
@@ -1933,18 +1941,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1958,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1982,26 +1997,36 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2012,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -2030,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -2048,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -2066,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2085,11 +2110,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2111,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2130,7 +2163,10 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,10 +2192,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="b">
         <v>1</v>
@@ -2178,10 +2214,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,10 +2225,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,10 +2236,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2211,10 +2247,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2222,10 +2258,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2233,7 +2269,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>-10</v>
@@ -2244,10 +2280,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2296,10 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,10 +2312,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2285,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2300,10 +2339,10 @@
       </c>
       <c r="D2" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>dXEMA_entry</v>
+        <v>dxEMA_entry</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2318,10 +2357,10 @@
       </c>
       <c r="D3" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>dXSMA_entry</v>
+        <v>dxSMA_entry</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2336,10 +2375,10 @@
       </c>
       <c r="D4" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>gXEMA_entry</v>
+        <v>gxEMA_entry</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2354,10 +2393,10 @@
       </c>
       <c r="D5" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>gXSMA_entry</v>
+        <v>gxSMA_entry</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,10 +2411,10 @@
       </c>
       <c r="D6" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>nXEMA_entry</v>
+        <v>nxEMA_entry</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2390,10 +2429,10 @@
       </c>
       <c r="D7" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>nXSMA_entry</v>
+        <v>nxSMA_entry</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2448,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2485,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A5B6E3-09F6-43BD-A4CF-CF3B7369FB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4193AD0-C705-41EA-9422-27105ED74C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -177,9 +177,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>"(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)",</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t>nx</t>
+  </si>
+  <si>
+    <t>ma_id</t>
+  </si>
+  <si>
+    <t>"(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)"</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1643,7 +1646,7 @@
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1883,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="str">
         <f>E2 &amp; "formula"</f>
@@ -1904,7 +1907,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F4" si="0">E3 &amp; "formula"</f>
@@ -1925,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -1973,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2293,41 +2296,46 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="128" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2337,15 +2345,18 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
         <v>dxEMA_entry</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2355,84 +2366,231 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
+        <v>dxEMA_exit</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f xml:space="preserve"> LEFT(F2,1) &amp; "!" &amp;RIGHT(F2, LEN(F2)-1)</f>
+        <v>"!(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
         <v>dxSMA_entry</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="F4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
+        <v>dxSMA_exit</v>
+      </c>
+      <c r="F5" t="str">
+        <f xml:space="preserve"> LEFT(F4,1) &amp; "!" &amp;RIGHT(F4, LEN(F4)-1)</f>
+        <v>"!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
         <v>gxEMA_entry</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
+        <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
+        <v>gxEMA_exit</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f xml:space="preserve"> LEFT(F6,1) &amp; "!" &amp;RIGHT(F6, LEN(F6)-1)</f>
+        <v>"!(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="D5" t="str">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
         <v>gxSMA_entry</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="str">
+        <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
+        <v>gxSMA_exit</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f xml:space="preserve"> LEFT(F8,1) &amp; "!" &amp;RIGHT(F8, LEN(F8)-1)</f>
+        <v>"!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="D6" t="str">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
         <v>nxEMA_entry</v>
       </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
+        <v>nxEMA_exit</v>
+      </c>
+      <c r="F11" t="str">
+        <f>F2 &amp; "|" &amp;F6</f>
+        <v>"(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)"|"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>6</v>
       </c>
-      <c r="D7" t="str">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
         <v>nxSMA_entry</v>
       </c>
-      <c r="E7" t="s">
-        <v>52</v>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="str">
+        <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
+        <v>nxSMA_exit</v>
+      </c>
+      <c r="F13" t="str">
+        <f>F4 &amp; "|" &amp;F8</f>
+        <v>"(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"|"(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4193AD0-C705-41EA-9422-27105ED74C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38C0DCB-D62F-437F-BABF-31971DB8BDDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <t>ma_id</t>
   </si>
   <si>
-    <t>"(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)"</t>
+    <t>(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</t>
   </si>
 </sst>
 </file>
@@ -2302,7 +2302,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="F3" s="6" t="str">
         <f xml:space="preserve"> LEFT(F2,1) &amp; "!" &amp;RIGHT(F2, LEN(F2)-1)</f>
-        <v>"!(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)"</v>
+        <v>(!EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="F11" t="str">
         <f>F2 &amp; "|" &amp;F6</f>
-        <v>"(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)"|"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</v>
+        <v>(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)|"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38C0DCB-D62F-437F-BABF-31971DB8BDDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -24,8 +23,9 @@
     <sheet name="trade" sheetId="12" r:id="rId9"/>
     <sheet name="metrics" sheetId="7" r:id="rId10"/>
     <sheet name="z_sig" sheetId="13" r:id="rId11"/>
+    <sheet name="z_formula" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -220,12 +220,27 @@
   </si>
   <si>
     <t>(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</t>
+  </si>
+  <si>
+    <t>dxEMA_entry</t>
+  </si>
+  <si>
+    <t>dxEMA_exit</t>
+  </si>
+  <si>
+    <t>(!EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</t>
+  </si>
+  <si>
+    <t>EMA.020 &lt; EMA.050</t>
+  </si>
+  <si>
+    <t>EMA.020 &gt;= EMA.050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -599,7 +614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -637,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1627,7 +1642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085322FF-AEF0-413E-A05B-FFEFADC5563B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1832,8 +1847,352 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
+        <v>dxEMA_entry</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
+        <v>dxEMA_exit</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f xml:space="preserve"> "!" &amp;RIGHT(F2, LEN(F2))</f>
+        <v>!EMA.020 &lt; EMA.050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
+        <v>dxSMA_entry</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
+        <v>dxSMA_exit</v>
+      </c>
+      <c r="F5" t="str">
+        <f xml:space="preserve"> LEFT(F4,1) &amp; "!" &amp;RIGHT(F4, LEN(F4)-1)</f>
+        <v>"!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
+        <v>gxEMA_entry</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
+        <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
+        <v>gxEMA_exit</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f xml:space="preserve"> LEFT(F6,1) &amp; "!" &amp;RIGHT(F6, LEN(F6)-1)</f>
+        <v>"!(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
+        <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
+        <v>gxSMA_entry</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="str">
+        <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
+        <v>gxSMA_exit</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f xml:space="preserve"> LEFT(F8,1) &amp; "!" &amp;RIGHT(F8, LEN(F8)-1)</f>
+        <v>"!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="str">
+        <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
+        <v>nxEMA_entry</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
+        <v>nxEMA_exit</v>
+      </c>
+      <c r="F11" t="str">
+        <f>F2 &amp; "|" &amp;F6</f>
+        <v>EMA.020 &lt; EMA.050|"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="str">
+        <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
+        <v>nxSMA_entry</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="str">
+        <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
+        <v>nxSMA_exit</v>
+      </c>
+      <c r="F13" t="str">
+        <f>F4 &amp; "|" &amp;F8</f>
+        <v>"(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"|"(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1941,7 +2300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1996,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2110,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2162,7 +2521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2295,14 +2654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2669,7 @@
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="128" bestFit="1" customWidth="1"/>
   </cols>
@@ -2353,7 +2712,7 @@
         <v>dxEMA_entry</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2373,9 +2732,8 @@
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
         <v>dxEMA_exit</v>
       </c>
-      <c r="F3" s="6" t="str">
-        <f xml:space="preserve"> LEFT(F2,1) &amp; "!" &amp;RIGHT(F2, LEN(F2)-1)</f>
-        <v>(!EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</v>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2547,7 +2905,7 @@
       </c>
       <c r="F11" t="str">
         <f>F2 &amp; "|" &amp;F6</f>
-        <v>(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)|"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</v>
+        <v>EMA.020 &lt; EMA.050|"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2599,7 +2957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2645,7 +3003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2694,7 +3052,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D42570FD-D002-4DB2-B296-495808705052}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585F4567-2F21-471A-B6A0-0ADB115063B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38C0DCB-D62F-437F-BABF-31971DB8BDDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EBB062-657D-4215-9C67-A8FF2B3C9766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -2302,7 +2302,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,8 +2374,8 @@
         <v>dxEMA_exit</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f xml:space="preserve"> LEFT(F2,1) &amp; "!" &amp;RIGHT(F2, LEN(F2)-1)</f>
-        <v>(!EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</v>
+        <f xml:space="preserve"> "!" &amp; LEFT(F2,1) &amp; RIGHT(F2, LEN(F2)-1)</f>
+        <v>!(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D02D85-2D50-414B-A72E-668967734833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="6"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <sheet name="z_sig" sheetId="13" r:id="rId11"/>
     <sheet name="z_formula" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -234,13 +235,13 @@
     <t>EMA.020 &lt; EMA.050</t>
   </si>
   <si>
-    <t>EMA.020 &gt;= EMA.050</t>
+    <t>(EMA.020 &lt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -614,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -652,7 +653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1642,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1848,7 +1849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2192,7 +2193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2300,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,7 +2356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2469,7 +2470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2521,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2654,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2712,7 +2713,7 @@
         <v>dxEMA_entry</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2732,8 +2733,9 @@
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
         <v>dxEMA_exit</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>63</v>
+      <c r="F3" s="6" t="str">
+        <f xml:space="preserve"> "!" &amp; LEFT(F2,1) &amp;RIGHT(F2, LEN(F2)-1)</f>
+        <v>!(EMA.020 &lt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2808,7 +2810,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2830,7 +2832,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -2894,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -2905,7 +2907,7 @@
       </c>
       <c r="F11" t="str">
         <f>F2 &amp; "|" &amp;F6</f>
-        <v>EMA.020 &lt; EMA.050|"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</v>
+        <v>(EMA.020 &lt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)|"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2916,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -2957,7 +2959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3003,7 +3005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D02D85-2D50-414B-A72E-668967734833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet name="z_sig" sheetId="13" r:id="rId11"/>
     <sheet name="z_formula" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -241,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -615,7 +614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -653,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1643,7 +1642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1849,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2193,7 +2192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2301,7 +2300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2356,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2470,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2522,130 +2521,84 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9">
+      <c r="I2">
         <v>-10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2655,10 +2608,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2959,7 +2912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3005,7 +2958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3054,7 +3007,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585F4567-2F21-471A-B6A0-0ADB115063B1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{942EAE1D-042F-4599-9D73-A6408D7A2FD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3565BC84-13C4-4E98-822F-395D3C8C976B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <sheet name="z_sig" sheetId="13" r:id="rId11"/>
     <sheet name="z_formula" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,9 +85,6 @@
     <t>Golden Cross</t>
   </si>
   <si>
-    <t>nox</t>
-  </si>
-  <si>
     <t>No Cross</t>
   </si>
   <si>
@@ -235,12 +233,15 @@
   </si>
   <si>
     <t>(EMA.020 &lt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)</t>
+  </si>
+  <si>
+    <t>NoX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -614,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -652,7 +653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -666,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" t="s">
         <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1642,7 +1643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1658,10 +1659,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1670,19 +1671,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>10</v>
@@ -1705,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
@@ -1728,7 +1729,7 @@
         <v>dxformula</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -1749,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E2</f>
@@ -1772,7 +1773,7 @@
         <v>dxformula</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -1793,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
@@ -1823,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E2</f>
@@ -1848,7 +1849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1870,13 +1871,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1885,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,7 +1907,7 @@
         <v>dxEMA_entry</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,7 +1950,7 @@
         <v>dxSMA_entry</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,7 +1993,7 @@
         <v>gxEMA_entry</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2035,7 +2036,7 @@
         <v>gxSMA_entry</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2078,7 +2079,7 @@
         <v>nxEMA_entry</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,7 +2122,7 @@
         <v>nxSMA_entry</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2160,10 +2161,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2180,10 +2181,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2192,14 +2193,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2228,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2245,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="str">
         <f>E2 &amp; "formula"</f>
@@ -2266,7 +2267,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F4" si="0">E3 &amp; "formula"</f>
@@ -2281,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -2300,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2321,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -2335,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2379,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
@@ -2469,7 +2470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2506,10 +2507,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2521,14 +2522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,31 +2544,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
         <v>38</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2575,31 +2576,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>-10</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2608,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2630,13 +2631,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2645,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,7 +2667,7 @@
         <v>dxEMA_entry</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2709,7 +2710,7 @@
         <v>dxSMA_entry</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2752,7 +2753,7 @@
         <v>gxEMA_entry</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,7 +2796,7 @@
         <v>gxSMA_entry</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2838,7 +2839,7 @@
         <v>nxEMA_entry</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2881,7 +2882,7 @@
         <v>nxSMA_entry</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2912,7 +2913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2941,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2958,7 +2959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2987,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2995,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfalk\Documents\GitHub\splGoldenDeathX\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3565BC84-13C4-4E98-822F-395D3C8C976B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet name="z_sig" sheetId="13" r:id="rId11"/>
     <sheet name="z_formula" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -205,15 +204,6 @@
     <t>SMA</t>
   </si>
   <si>
-    <t>dx</t>
-  </si>
-  <si>
-    <t>gx</t>
-  </si>
-  <si>
-    <t>nx</t>
-  </si>
-  <si>
     <t>ma_id</t>
   </si>
   <si>
@@ -236,12 +226,21 @@
   </si>
   <si>
     <t>NoX</t>
+  </si>
+  <si>
+    <t>dX</t>
+  </si>
+  <si>
+    <t>gX</t>
+  </si>
+  <si>
+    <t>nX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
@@ -615,7 +614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -653,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1643,11 +1642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,7 +1725,7 @@
       </c>
       <c r="I2" t="str">
         <f>strategy!F2</f>
-        <v>dxformula</v>
+        <v>dXformula</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
@@ -1736,7 +1735,7 @@
       </c>
       <c r="L2" t="str">
         <f>strategy!E2&amp;ind!C2&amp;"_Entry"</f>
-        <v>dxEMA_Entry</v>
+        <v>dXEMA_Entry</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1770,7 +1769,7 @@
       </c>
       <c r="I3" t="str">
         <f>strategy!F2</f>
-        <v>dxformula</v>
+        <v>dXformula</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
@@ -1780,7 +1779,7 @@
       </c>
       <c r="L3" t="str">
         <f>strategy!E2&amp;ind!C2&amp;"_Exit"</f>
-        <v>dxEMA_Exit</v>
+        <v>dXEMA_Exit</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1849,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1877,7 +1876,7 @@
         <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1904,10 +1903,10 @@
       </c>
       <c r="E2" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>dxEMA_entry</v>
+        <v>dXEMA_entry</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,7 +1924,7 @@
       </c>
       <c r="E3" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>dxEMA_exit</v>
+        <v>dXEMA_exit</v>
       </c>
       <c r="F3" s="6" t="str">
         <f xml:space="preserve"> "!" &amp;RIGHT(F2, LEN(F2))</f>
@@ -1947,7 +1946,7 @@
       </c>
       <c r="E4" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>dxSMA_entry</v>
+        <v>dXSMA_entry</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>48</v>
@@ -1968,7 +1967,7 @@
       </c>
       <c r="E5" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>dxSMA_exit</v>
+        <v>dXSMA_exit</v>
       </c>
       <c r="F5" t="str">
         <f xml:space="preserve"> LEFT(F4,1) &amp; "!" &amp;RIGHT(F4, LEN(F4)-1)</f>
@@ -1990,7 +1989,7 @@
       </c>
       <c r="E6" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>gxEMA_entry</v>
+        <v>gXEMA_entry</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>47</v>
@@ -2011,7 +2010,7 @@
       </c>
       <c r="E7" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>gxEMA_exit</v>
+        <v>gXEMA_exit</v>
       </c>
       <c r="F7" s="7" t="str">
         <f xml:space="preserve"> LEFT(F6,1) &amp; "!" &amp;RIGHT(F6, LEN(F6)-1)</f>
@@ -2033,7 +2032,7 @@
       </c>
       <c r="E8" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>gxSMA_entry</v>
+        <v>gXSMA_entry</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>48</v>
@@ -2054,7 +2053,7 @@
       </c>
       <c r="E9" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>gxSMA_exit</v>
+        <v>gXSMA_exit</v>
       </c>
       <c r="F9" s="5" t="str">
         <f xml:space="preserve"> LEFT(F8,1) &amp; "!" &amp;RIGHT(F8, LEN(F8)-1)</f>
@@ -2076,7 +2075,7 @@
       </c>
       <c r="E10" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>nxEMA_entry</v>
+        <v>nXEMA_entry</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -2097,7 +2096,7 @@
       </c>
       <c r="E11" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>nxEMA_exit</v>
+        <v>nXEMA_exit</v>
       </c>
       <c r="F11" t="str">
         <f>F2 &amp; "|" &amp;F6</f>
@@ -2119,7 +2118,7 @@
       </c>
       <c r="E12" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>nxSMA_entry</v>
+        <v>nXSMA_entry</v>
       </c>
       <c r="F12" t="s">
         <v>50</v>
@@ -2140,7 +2139,7 @@
       </c>
       <c r="E13" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>nxSMA_exit</v>
+        <v>nXSMA_exit</v>
       </c>
       <c r="F13" t="str">
         <f>F4 &amp; "|" &amp;F8</f>
@@ -2161,10 +2160,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,10 +2180,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2193,14 +2192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,11 +2245,11 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F2" t="str">
         <f>E2 &amp; "formula"</f>
-        <v>dxformula</v>
+        <v>dXformula</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,11 +2266,11 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F4" si="0">E3 &amp; "formula"</f>
-        <v>gxformula</v>
+        <v>gXformula</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,17 +2281,17 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>nxformula</v>
+        <v>nXformula</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2356,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2470,14 +2469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,7 +2521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2609,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2637,7 +2636,7 @@
         <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2664,10 +2663,10 @@
       </c>
       <c r="E2" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>dxEMA_entry</v>
+        <v>dXEMA_entry</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2685,7 +2684,7 @@
       </c>
       <c r="E3" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>dxEMA_exit</v>
+        <v>dXEMA_exit</v>
       </c>
       <c r="F3" s="6" t="str">
         <f xml:space="preserve"> "!" &amp; LEFT(F2,1) &amp;RIGHT(F2, LEN(F2)-1)</f>
@@ -2707,7 +2706,7 @@
       </c>
       <c r="E4" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>dxSMA_entry</v>
+        <v>dXSMA_entry</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>48</v>
@@ -2728,7 +2727,7 @@
       </c>
       <c r="E5" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>dxSMA_exit</v>
+        <v>dXSMA_exit</v>
       </c>
       <c r="F5" t="str">
         <f xml:space="preserve"> LEFT(F4,1) &amp; "!" &amp;RIGHT(F4, LEN(F4)-1)</f>
@@ -2750,7 +2749,7 @@
       </c>
       <c r="E6" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>gxEMA_entry</v>
+        <v>gXEMA_entry</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>47</v>
@@ -2771,7 +2770,7 @@
       </c>
       <c r="E7" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>gxEMA_exit</v>
+        <v>gXEMA_exit</v>
       </c>
       <c r="F7" s="7" t="str">
         <f xml:space="preserve"> LEFT(F6,1) &amp; "!" &amp;RIGHT(F6, LEN(F6)-1)</f>
@@ -2793,7 +2792,7 @@
       </c>
       <c r="E8" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>gxSMA_entry</v>
+        <v>gXSMA_entry</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>48</v>
@@ -2814,7 +2813,7 @@
       </c>
       <c r="E9" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>gxSMA_exit</v>
+        <v>gXSMA_exit</v>
       </c>
       <c r="F9" s="5" t="str">
         <f xml:space="preserve"> LEFT(F8,1) &amp; "!" &amp;RIGHT(F8, LEN(F8)-1)</f>
@@ -2836,7 +2835,7 @@
       </c>
       <c r="E10" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>nxEMA_entry</v>
+        <v>nXEMA_entry</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -2857,7 +2856,7 @@
       </c>
       <c r="E11" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>nxEMA_exit</v>
+        <v>nXEMA_exit</v>
       </c>
       <c r="F11" t="str">
         <f>F2 &amp; "|" &amp;F6</f>
@@ -2879,7 +2878,7 @@
       </c>
       <c r="E12" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>nxSMA_entry</v>
+        <v>nXSMA_entry</v>
       </c>
       <c r="F12" t="s">
         <v>50</v>
@@ -2900,7 +2899,7 @@
       </c>
       <c r="E13" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>nxSMA_exit</v>
+        <v>nXSMA_exit</v>
       </c>
       <c r="F13" t="str">
         <f>F4 &amp; "|" &amp;F8</f>
@@ -2913,7 +2912,53 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2942,52 +2987,6 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
         <v>45</v>
       </c>
     </row>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -19,11 +19,12 @@
     <sheet name="sig" sheetId="6" r:id="rId5"/>
     <sheet name="rules" sheetId="8" r:id="rId6"/>
     <sheet name="formula" sheetId="10" r:id="rId7"/>
-    <sheet name="position" sheetId="11" r:id="rId8"/>
-    <sheet name="trade" sheetId="12" r:id="rId9"/>
-    <sheet name="metrics" sheetId="7" r:id="rId10"/>
-    <sheet name="z_sig" sheetId="13" r:id="rId11"/>
-    <sheet name="z_formula" sheetId="14" r:id="rId12"/>
+    <sheet name="point" sheetId="15" r:id="rId8"/>
+    <sheet name="position" sheetId="11" r:id="rId9"/>
+    <sheet name="trade" sheetId="12" r:id="rId10"/>
+    <sheet name="metrics" sheetId="7" r:id="rId11"/>
+    <sheet name="z_sig" sheetId="13" r:id="rId12"/>
+    <sheet name="z_formula" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -90,18 +91,6 @@
     <t>sigFormula</t>
   </si>
   <si>
-    <t>colA</t>
-  </si>
-  <si>
-    <t>colB</t>
-  </si>
-  <si>
-    <t>colC</t>
-  </si>
-  <si>
-    <t>colD</t>
-  </si>
-  <si>
     <t>formula</t>
   </si>
   <si>
@@ -235,6 +224,18 @@
   </si>
   <si>
     <t>nX</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>sig_ema_col</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
 </sst>
 </file>
@@ -653,6 +654,52 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -666,16 +713,16 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1641,27 +1688,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1670,31 +1718,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1707,112 +1746,74 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
-        <v>EMA.020</v>
+      <c r="E2" t="s">
+        <v>61</v>
       </c>
       <c r="F2" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E3</f>
-        <v>EMA.050</v>
-      </c>
-      <c r="G2" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E4</f>
-        <v>EMA.100</v>
-      </c>
-      <c r="H2" t="str">
+        <f>strategy!F2</f>
+        <v>dXformula</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <f>strategy!E2&amp;ind!C2&amp;"_Entry"</f>
+        <v>dXEMA_Entry</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="str">
+        <f>strategy!F2</f>
+        <v>dXformula</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <f>strategy!E2&amp;ind!C2&amp;"_Exit"</f>
+        <v>dXEMA_Exit</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="str">
         <f>ind!C2 &amp; "." &amp;indMetrics!E5</f>
         <v>EMA.200</v>
       </c>
-      <c r="I2" t="str">
-        <f>strategy!F2</f>
-        <v>dXformula</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="str">
-        <f>strategy!E2&amp;ind!C2&amp;"_Entry"</f>
-        <v>dXEMA_Entry</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E2</f>
-        <v>SMA.020</v>
-      </c>
-      <c r="F3" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E3</f>
-        <v>SMA.050</v>
-      </c>
-      <c r="G3" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E4</f>
-        <v>SMA.100</v>
-      </c>
-      <c r="H3" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
-        <v>SMA.200</v>
-      </c>
-      <c r="I3" t="str">
-        <f>strategy!F2</f>
-        <v>dXformula</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="str">
-        <f>strategy!E2&amp;ind!C2&amp;"_Exit"</f>
-        <v>dXEMA_Exit</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E2</f>
-        <v>EMA.020</v>
-      </c>
-      <c r="F4" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E3</f>
-        <v>EMA.050</v>
-      </c>
-      <c r="G4" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E4</f>
-        <v>EMA.100</v>
-      </c>
-      <c r="H4" t="str">
-        <f>ind!C2 &amp; "." &amp;indMetrics!E5</f>
-        <v>EMA.200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1826,18 +1827,6 @@
         <v>14</v>
       </c>
       <c r="E5" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E2</f>
-        <v>SMA.020</v>
-      </c>
-      <c r="F5" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E3</f>
-        <v>SMA.050</v>
-      </c>
-      <c r="G5" t="str">
-        <f>ind!C3 &amp; "." &amp;indMetrics!E4</f>
-        <v>SMA.100</v>
-      </c>
-      <c r="H5" t="str">
         <f>ind!C3 &amp; "." &amp;indMetrics!E5</f>
         <v>SMA.200</v>
       </c>
@@ -1847,7 +1836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -1870,13 +1859,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1885,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1903,10 +1892,10 @@
       </c>
       <c r="E2" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>dXEMA_entry</v>
+        <v>dXEMA_open</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,7 +1913,7 @@
       </c>
       <c r="E3" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>dXEMA_exit</v>
+        <v>dXEMA_close</v>
       </c>
       <c r="F3" s="6" t="str">
         <f xml:space="preserve"> "!" &amp;RIGHT(F2, LEN(F2))</f>
@@ -1946,10 +1935,10 @@
       </c>
       <c r="E4" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>dXSMA_entry</v>
+        <v>dXSMA_open</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,7 +1956,7 @@
       </c>
       <c r="E5" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>dXSMA_exit</v>
+        <v>dXSMA_close</v>
       </c>
       <c r="F5" t="str">
         <f xml:space="preserve"> LEFT(F4,1) &amp; "!" &amp;RIGHT(F4, LEN(F4)-1)</f>
@@ -1989,10 +1978,10 @@
       </c>
       <c r="E6" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>gXEMA_entry</v>
+        <v>gXEMA_open</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2010,7 +1999,7 @@
       </c>
       <c r="E7" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>gXEMA_exit</v>
+        <v>gXEMA_close</v>
       </c>
       <c r="F7" s="7" t="str">
         <f xml:space="preserve"> LEFT(F6,1) &amp; "!" &amp;RIGHT(F6, LEN(F6)-1)</f>
@@ -2032,10 +2021,10 @@
       </c>
       <c r="E8" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>gXSMA_entry</v>
+        <v>gXSMA_open</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,7 +2042,7 @@
       </c>
       <c r="E9" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>gXSMA_exit</v>
+        <v>gXSMA_close</v>
       </c>
       <c r="F9" s="5" t="str">
         <f xml:space="preserve"> LEFT(F8,1) &amp; "!" &amp;RIGHT(F8, LEN(F8)-1)</f>
@@ -2075,10 +2064,10 @@
       </c>
       <c r="E10" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>nXEMA_entry</v>
+        <v>nXEMA_open</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2096,7 +2085,7 @@
       </c>
       <c r="E11" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>nXEMA_exit</v>
+        <v>nXEMA_close</v>
       </c>
       <c r="F11" t="str">
         <f>F2 &amp; "|" &amp;F6</f>
@@ -2118,10 +2107,10 @@
       </c>
       <c r="E12" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>nXSMA_entry</v>
+        <v>nXSMA_open</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2139,7 +2128,7 @@
       </c>
       <c r="E13" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>nXSMA_exit</v>
+        <v>nXSMA_close</v>
       </c>
       <c r="F13" t="str">
         <f>F4 &amp; "|" &amp;F8</f>
@@ -2160,10 +2149,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2180,10 +2169,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2193,13 +2182,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,12 +2200,12 @@
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2228,10 +2217,13 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2245,14 +2237,17 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" t="str">
         <f>E2 &amp; "formula"</f>
         <v>dXformula</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2266,14 +2261,17 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F4" si="0">E3 &amp; "formula"</f>
         <v>gXformula</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2281,17 +2279,20 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>nXformula</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -2335,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
@@ -2509,7 +2510,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2528,7 +2529,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,31 +2544,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2575,31 +2576,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
       </c>
       <c r="I2">
         <v>-10</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2630,13 +2631,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2645,7 +2646,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2663,10 +2664,10 @@
       </c>
       <c r="E2" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>dXEMA_entry</v>
+        <v>dXEMA_open</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2684,7 +2685,7 @@
       </c>
       <c r="E3" t="str">
         <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>dXEMA_exit</v>
+        <v>dXEMA_close</v>
       </c>
       <c r="F3" s="6" t="str">
         <f xml:space="preserve"> "!" &amp; LEFT(F2,1) &amp;RIGHT(F2, LEN(F2)-1)</f>
@@ -2706,10 +2707,10 @@
       </c>
       <c r="E4" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>dXSMA_entry</v>
+        <v>dXSMA_open</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2727,7 +2728,7 @@
       </c>
       <c r="E5" t="str">
         <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>dXSMA_exit</v>
+        <v>dXSMA_close</v>
       </c>
       <c r="F5" t="str">
         <f xml:space="preserve"> LEFT(F4,1) &amp; "!" &amp;RIGHT(F4, LEN(F4)-1)</f>
@@ -2749,10 +2750,10 @@
       </c>
       <c r="E6" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>gXEMA_entry</v>
+        <v>gXEMA_open</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2770,7 +2771,7 @@
       </c>
       <c r="E7" t="str">
         <f>strategy!E3&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>gXEMA_exit</v>
+        <v>gXEMA_close</v>
       </c>
       <c r="F7" s="7" t="str">
         <f xml:space="preserve"> LEFT(F6,1) &amp; "!" &amp;RIGHT(F6, LEN(F6)-1)</f>
@@ -2792,10 +2793,10 @@
       </c>
       <c r="E8" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>gXSMA_entry</v>
+        <v>gXSMA_open</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,7 +2814,7 @@
       </c>
       <c r="E9" t="str">
         <f>strategy!E3&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>gXSMA_exit</v>
+        <v>gXSMA_close</v>
       </c>
       <c r="F9" s="5" t="str">
         <f xml:space="preserve"> LEFT(F8,1) &amp; "!" &amp;RIGHT(F8, LEN(F8)-1)</f>
@@ -2835,10 +2836,10 @@
       </c>
       <c r="E10" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>nXEMA_entry</v>
+        <v>nXEMA_open</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,7 +2857,7 @@
       </c>
       <c r="E11" t="str">
         <f>strategy!E4&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>nXEMA_exit</v>
+        <v>nXEMA_close</v>
       </c>
       <c r="F11" t="str">
         <f>F2 &amp; "|" &amp;F6</f>
@@ -2878,10 +2879,10 @@
       </c>
       <c r="E12" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>nXSMA_entry</v>
+        <v>nXSMA_open</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2899,7 +2900,7 @@
       </c>
       <c r="E13" t="str">
         <f>strategy!E4&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>nXSMA_exit</v>
+        <v>nXSMA_close</v>
       </c>
       <c r="F13" t="str">
         <f>F4 &amp; "|" &amp;F8</f>
@@ -2916,17 +2917,10 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -2941,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +2959,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2995,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="indMetrics" sheetId="9" r:id="rId4"/>
     <sheet name="sig" sheetId="6" r:id="rId5"/>
     <sheet name="rules" sheetId="8" r:id="rId6"/>
-    <sheet name="formula" sheetId="10" r:id="rId7"/>
-    <sheet name="point" sheetId="15" r:id="rId8"/>
+    <sheet name="entry" sheetId="15" r:id="rId7"/>
+    <sheet name="formula" sheetId="10" r:id="rId8"/>
     <sheet name="position" sheetId="11" r:id="rId9"/>
     <sheet name="trade" sheetId="12" r:id="rId10"/>
     <sheet name="metrics" sheetId="7" r:id="rId11"/>
@@ -169,73 +169,73 @@
     <t>short</t>
   </si>
   <si>
+    <t>strategy_id</t>
+  </si>
+  <si>
+    <t>"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</t>
+  </si>
+  <si>
+    <t>"(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</t>
+  </si>
+  <si>
+    <t>"!(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)", &amp; "!(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</t>
+  </si>
+  <si>
+    <t>"!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)" &amp; "!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</t>
+  </si>
+  <si>
+    <t>EMA</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>ma_id</t>
+  </si>
+  <si>
+    <t>(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</t>
+  </si>
+  <si>
+    <t>dxEMA_entry</t>
+  </si>
+  <si>
+    <t>dxEMA_exit</t>
+  </si>
+  <si>
+    <t>(!EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</t>
+  </si>
+  <si>
+    <t>EMA.020 &lt; EMA.050</t>
+  </si>
+  <si>
+    <t>(EMA.020 &lt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)</t>
+  </si>
+  <si>
+    <t>NoX</t>
+  </si>
+  <si>
+    <t>dX</t>
+  </si>
+  <si>
+    <t>gX</t>
+  </si>
+  <si>
+    <t>nX</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>sig_ema_col</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
     <t>entry</t>
-  </si>
-  <si>
-    <t>strategy_id</t>
-  </si>
-  <si>
-    <t>"(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</t>
-  </si>
-  <si>
-    <t>"(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</t>
-  </si>
-  <si>
-    <t>"!(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)", &amp; "!(EMA.020 &gt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)"</t>
-  </si>
-  <si>
-    <t>"!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)" &amp; "!(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</t>
-  </si>
-  <si>
-    <t>EMA</t>
-  </si>
-  <si>
-    <t>SMA</t>
-  </si>
-  <si>
-    <t>ma_id</t>
-  </si>
-  <si>
-    <t>(EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</t>
-  </si>
-  <si>
-    <t>dxEMA_entry</t>
-  </si>
-  <si>
-    <t>dxEMA_exit</t>
-  </si>
-  <si>
-    <t>(!EMA.020 &lt; EMA.050 &amp;  EMA.050 &lt; EMA.100 &amp;  EMA.100 &lt; EMA.200)</t>
-  </si>
-  <si>
-    <t>EMA.020 &lt; EMA.050</t>
-  </si>
-  <si>
-    <t>(EMA.020 &lt; EMA.050 &amp; EMA.050 &gt; EMA.100 &amp;  EMA.100 &gt; EMA.200)</t>
-  </si>
-  <si>
-    <t>NoX</t>
-  </si>
-  <si>
-    <t>dX</t>
-  </si>
-  <si>
-    <t>gX</t>
-  </si>
-  <si>
-    <t>nX</t>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>sig_ema_col</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>position</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>15</v>
@@ -1747,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" t="str">
         <f>strategy!F2</f>
@@ -1778,7 +1778,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="str">
         <f>strategy!F2</f>
@@ -1862,10 +1862,10 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>dXEMA_open</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>dXSMA_open</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,7 +1981,7 @@
         <v>gXEMA_open</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,7 +2024,7 @@
         <v>gXSMA_open</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
         <v>nXEMA_open</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>nXSMA_open</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,10 +2149,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2169,10 +2169,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
         <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2220,7 +2220,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" t="str">
         <f>E2 &amp; "formula"</f>
@@ -2261,7 +2261,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F4" si="0">E3 &amp; "formula"</f>
@@ -2279,13 +2279,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2610,6 +2610,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2634,10 +2673,10 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2667,7 +2706,7 @@
         <v>dXEMA_open</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2710,7 +2749,7 @@
         <v>dXSMA_open</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2753,7 +2792,7 @@
         <v>gXEMA_open</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2796,7 +2835,7 @@
         <v>gXSMA_open</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,7 +2878,7 @@
         <v>nXEMA_open</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2882,7 +2921,7 @@
         <v>nXSMA_open</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2905,45 +2944,6 @@
       <c r="F13" t="str">
         <f>F4 &amp; "|" &amp;F8</f>
         <v>"(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"|"(SMA.020 &lt; SMA.050 &amp; SMA.050 &lt; SMA.100 &amp;  SMA.100 &lt; SMA.200)"</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -20,11 +20,12 @@
     <sheet name="rules" sheetId="8" r:id="rId6"/>
     <sheet name="entry" sheetId="15" r:id="rId7"/>
     <sheet name="formula" sheetId="10" r:id="rId8"/>
-    <sheet name="position" sheetId="11" r:id="rId9"/>
-    <sheet name="trade" sheetId="12" r:id="rId10"/>
-    <sheet name="metrics" sheetId="7" r:id="rId11"/>
-    <sheet name="z_sig" sheetId="13" r:id="rId12"/>
-    <sheet name="z_formula" sheetId="14" r:id="rId13"/>
+    <sheet name="point" sheetId="16" r:id="rId9"/>
+    <sheet name="position" sheetId="11" r:id="rId10"/>
+    <sheet name="trade" sheetId="12" r:id="rId11"/>
+    <sheet name="metrics" sheetId="7" r:id="rId12"/>
+    <sheet name="z_sig" sheetId="13" r:id="rId13"/>
+    <sheet name="z_formula" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -236,6 +237,24 @@
   </si>
   <si>
     <t>entry</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>rebalance</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
 </sst>
 </file>
@@ -660,6 +679,52 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -698,7 +763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
@@ -1688,7 +1753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -1836,7 +1901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -2610,11 +2675,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2640,6 +2703,54 @@
       </c>
       <c r="B3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2956,17 +3067,10 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -2981,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +3093,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="6"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>risk</t>
+  </si>
+  <si>
+    <t>enter</t>
   </si>
 </sst>
 </file>
@@ -2677,7 +2680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3066,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="8"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -1817,9 +1817,9 @@
       <c r="E2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="str">
-        <f>strategy!F2</f>
-        <v>dXformula</v>
+      <c r="F2" t="e">
+        <f>strategy!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -1827,9 +1827,9 @@
       <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="str">
-        <f>strategy!E2&amp;ind!C2&amp;"_Entry"</f>
-        <v>dXEMA_Entry</v>
+      <c r="I2" t="e">
+        <f>strategy!#REF!&amp;ind!C2&amp;"_Entry"</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,9 +1848,9 @@
       <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="str">
-        <f>strategy!F2</f>
-        <v>dXformula</v>
+      <c r="F3" t="e">
+        <f>strategy!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -1858,9 +1858,9 @@
       <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="str">
-        <f>strategy!E2&amp;ind!C2&amp;"_Exit"</f>
-        <v>dXEMA_Exit</v>
+      <c r="I3" t="e">
+        <f>strategy!#REF!&amp;ind!C2&amp;"_Exit"</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1958,9 +1958,9 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
-        <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>dXEMA_open</v>
+      <c r="E2" t="e">
+        <f>strategy!#REF!&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>53</v>
@@ -1979,9 +1979,9 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="str">
-        <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>dXEMA_close</v>
+      <c r="E3" t="e">
+        <f>strategy!#REF!&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
+        <v>#REF!</v>
       </c>
       <c r="F3" s="6" t="str">
         <f xml:space="preserve"> "!" &amp;RIGHT(F2, LEN(F2))</f>
@@ -2001,9 +2001,9 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="str">
-        <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>dXSMA_open</v>
+      <c r="E4" t="e">
+        <f>strategy!#REF!&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
+        <v>#REF!</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>43</v>
@@ -2022,9 +2022,9 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="str">
-        <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>dXSMA_close</v>
+      <c r="E5" t="e">
+        <f>strategy!#REF!&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
+        <v>#REF!</v>
       </c>
       <c r="F5" t="str">
         <f xml:space="preserve"> LEFT(F4,1) &amp; "!" &amp;RIGHT(F4, LEN(F4)-1)</f>
@@ -2256,7 +2256,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,9 +2815,9 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
-        <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
-        <v>dXEMA_open</v>
+      <c r="E2" t="e">
+        <f>strategy!#REF!&amp;ind!C2 &amp; "_" &amp; trade!B2</f>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>54</v>
@@ -2836,9 +2836,9 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="str">
-        <f>strategy!E2&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
-        <v>dXEMA_close</v>
+      <c r="E3" t="e">
+        <f>strategy!#REF!&amp;ind!C2 &amp; "_" &amp; trade!B3</f>
+        <v>#REF!</v>
       </c>
       <c r="F3" s="6" t="str">
         <f xml:space="preserve"> "!" &amp; LEFT(F2,1) &amp;RIGHT(F2, LEN(F2)-1)</f>
@@ -2858,9 +2858,9 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="str">
-        <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
-        <v>dXSMA_open</v>
+      <c r="E4" t="e">
+        <f>strategy!#REF!&amp;ind!C3 &amp; "_" &amp; trade!B2</f>
+        <v>#REF!</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>43</v>
@@ -2879,9 +2879,9 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="str">
-        <f>strategy!E2&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
-        <v>dXSMA_close</v>
+      <c r="E5" t="e">
+        <f>strategy!#REF!&amp;ind!C3 &amp; "_" &amp; trade!B3</f>
+        <v>#REF!</v>
       </c>
       <c r="F5" t="str">
         <f xml:space="preserve"> LEFT(F4,1) &amp; "!" &amp;RIGHT(F4, LEN(F4)-1)</f>
@@ -3069,7 +3069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3108,7 +3108,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{942EAE1D-042F-4599-9D73-A6408D7A2FD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FD7AC77-FDD5-44B4-BE2F-395DBD221E86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>

--- a/data/dT.xlsx
+++ b/data/dT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="13"/>
+    <workbookView xWindow="28680" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="metrics" sheetId="7" r:id="rId12"/>
     <sheet name="z_sig" sheetId="13" r:id="rId13"/>
     <sheet name="z_formula" sheetId="14" r:id="rId14"/>
+    <sheet name="rules (2)" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -258,6 +259,9 @@
   </si>
   <si>
     <t>enter</t>
+  </si>
+  <si>
+    <t>rule</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2241,6 +2245,93 @@
       </c>
       <c r="F15" t="s">
         <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>-10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2591,84 +2682,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2">
-        <v>-10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
